--- a/Materials/周二8-11.xlsx
+++ b/Materials/周二8-11.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoju\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_1" sheetId="1" r:id="rId1"/>
@@ -854,7 +854,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1158,24 +1158,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1206,6 +1188,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1223,6 +1211,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2383,11 +2383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="AD104" sqref="AD104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2404,133 +2404,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="32"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="26"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
+      <c r="A2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="31"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="38"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="34"/>
     </row>
     <row r="4" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="19" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="19" t="s">
+      <c r="W4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="X4" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2585,9 +2585,9 @@
       <c r="U5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
     </row>
     <row r="6" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -4387,7 +4387,9 @@
       <c r="I50" s="6">
         <v>1</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
       <c r="K50" s="6">
         <v>1</v>
       </c>
@@ -5486,7 +5488,9 @@
       <c r="J77" s="6">
         <v>1</v>
       </c>
-      <c r="K77" s="5"/>
+      <c r="K77" s="5">
+        <v>1</v>
+      </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -7594,11 +7598,11 @@
       <c r="X129" s="7"/>
     </row>
     <row r="130" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="23" t="s">
+      <c r="A130" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
@@ -7617,11 +7621,11 @@
       <c r="S130" s="16"/>
       <c r="T130" s="16"/>
       <c r="U130" s="16"/>
-      <c r="V130" s="27" t="s">
+      <c r="V130" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="W130" s="28"/>
-      <c r="X130" s="29"/>
+      <c r="W130" s="22"/>
+      <c r="X130" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Materials/周二8-11.xlsx
+++ b/Materials/周二8-11.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoju\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_1" sheetId="1" r:id="rId1"/>
@@ -854,7 +854,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2383,11 +2383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4349,8 +4349,12 @@
       <c r="I49" s="6">
         <v>1</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5">
+        <v>1</v>
+      </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
